--- a/templates/excelFile/inventory_excel.xlsx
+++ b/templates/excelFile/inventory_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Серийный № трубы</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Оборудование есть,проблема с меткой</t>
+  </si>
+  <si>
+    <t>ДАННЫЕ ОБ ИЗЛИШКЕ</t>
+  </si>
+  <si>
+    <t>Серийный № трубы </t>
+  </si>
+  <si>
+    <t>Серийный № ниппеля </t>
+  </si>
+  <si>
+    <t>Серийный № муфты </t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_р_._-;\-* #,##0.0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +140,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -152,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,6 +206,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -193,7 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -233,6 +307,22 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -519,20 +609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
-    <col min="5" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
     <col min="8" max="8" width="6.265625" customWidth="1"/>
     <col min="9" max="9" width="5.59765625" customWidth="1"/>
     <col min="10" max="10" width="8.73046875" customWidth="1"/>
@@ -732,12 +818,12 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -787,10 +873,37 @@
       <c r="BB6" s="1"/>
       <c r="BP6" s="2"/>
     </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:68" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/excelFile/inventory_excel.xlsx
+++ b/templates/excelFile/inventory_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Серийный № трубы</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Всего</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -302,16 +305,16 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -324,6 +327,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -612,7 +620,7 @@
   <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -643,8 +651,8 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -742,8 +750,8 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="14"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -818,12 +826,12 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -873,6 +881,12 @@
       <c r="BB6" s="1"/>
       <c r="BP6" s="2"/>
     </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="24"/>
+    </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.45">
       <c r="B9" s="20" t="s">
         <v>11</v>
@@ -883,19 +897,19 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:68" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/templates/excelFile/inventory_excel.xlsx
+++ b/templates/excelFile/inventory_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Серийный № трубы</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Исполнитель</t>
   </si>
   <si>
-    <t>Всего единиц оборудования для маркировки</t>
-  </si>
-  <si>
     <t>№ RFID-метки</t>
   </si>
   <si>
@@ -75,6 +72,18 @@
   </si>
   <si>
     <t>Всего</t>
+  </si>
+  <si>
+    <t>Всего единиц оборудования для инвентаризации</t>
+  </si>
+  <si>
+    <t>Недостача</t>
+  </si>
+  <si>
+    <t>Излишек</t>
+  </si>
+  <si>
+    <t>Итого по факту</t>
   </si>
 </sst>
 </file>
@@ -309,6 +318,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,11 +341,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -617,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -651,8 +660,8 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -682,7 +691,7 @@
     </row>
     <row r="2" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="13"/>
@@ -715,7 +724,7 @@
     </row>
     <row r="3" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="13"/>
@@ -748,11 +757,11 @@
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -779,145 +788,244 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:68" ht="106.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:68" ht="106.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="12"/>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BP9" s="2"/>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="12"/>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BP6" s="2"/>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="B9" s="20" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:68" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:68" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
